--- a/results/mp/tinybert/dilemma/confidence/126/stop-words-topk-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/126/stop-words-topk-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,69 +40,75 @@
     <t>name</t>
   </si>
   <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
     <t>brilliant</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
@@ -115,7 +121,7 @@
     <t>important</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>love</t>
   </si>
   <si>
     <t>wow</t>
@@ -124,7 +130,7 @@
     <t>social</t>
   </si>
   <si>
-    <t>media</t>
+    <t>documentary</t>
   </si>
   <si>
     <t>’</t>
@@ -488,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -496,10 +502,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -560,10 +566,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -578,16 +584,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -599,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -607,13 +613,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9666666666666667</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -625,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K4">
         <v>0.9090909090909091</v>
@@ -678,16 +684,16 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K5">
-        <v>0.8666666666666667</v>
+        <v>0.84</v>
       </c>
       <c r="L5">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -699,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -707,13 +713,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9230769230769231</v>
+        <v>0.8653846153846154</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -725,19 +731,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6">
-        <v>0.82</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L6">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="M6">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -749,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -757,13 +763,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9090909090909091</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -775,19 +781,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K7">
-        <v>0.6842105263157895</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L7">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="M7">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -799,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -807,13 +813,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8787878787878788</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C8">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -825,10 +831,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K8">
         <v>0.5862068965517241</v>
@@ -857,13 +863,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.875</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C9">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -875,10 +881,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K9">
         <v>0.5733333333333334</v>
@@ -907,13 +913,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7368421052631579</v>
+        <v>0.6</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -925,19 +931,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K10">
-        <v>0.5333333333333333</v>
+        <v>0.5166666666666667</v>
       </c>
       <c r="L10">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M10">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -949,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -957,13 +963,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.675</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C11">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -975,19 +981,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K11">
-        <v>0.5</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="L11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -999,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1007,13 +1013,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.625</v>
+        <v>0.5144927536231884</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1025,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K12">
-        <v>0.1875</v>
+        <v>0.2708333333333333</v>
       </c>
       <c r="L12">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M12">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1049,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1057,7 +1063,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5882352941176471</v>
+        <v>0.5</v>
       </c>
       <c r="C13">
         <v>10</v>
@@ -1075,19 +1081,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K13">
-        <v>0.07832422586520947</v>
+        <v>0.075591985428051</v>
       </c>
       <c r="L13">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M13">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1099,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1012</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1107,13 +1113,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="C14">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="D14">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1125,19 +1131,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K14">
-        <v>0.02108433734939759</v>
+        <v>0.0353356890459364</v>
       </c>
       <c r="L14">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="M14">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1149,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>650</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1157,13 +1163,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3617021276595745</v>
+        <v>0.4</v>
       </c>
       <c r="C15">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1175,31 +1181,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K15">
-        <v>0.01280409731113956</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="L15">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M15">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1207,13 +1213,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3461538461538461</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1225,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1233,13 +1239,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3428571428571429</v>
+        <v>0.3617021276595745</v>
       </c>
       <c r="C17">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1251,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1259,13 +1265,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2307692307692308</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1277,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1285,13 +1291,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.1153846153846154</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1303,7 +1309,33 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>69</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>0.1794871794871795</v>
+      </c>
+      <c r="C20">
+        <v>14</v>
+      </c>
+      <c r="D20">
+        <v>14</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
